--- a/biology/Botanique/Capparaceae/Capparaceae.xlsx
+++ b/biology/Botanique/Capparaceae/Capparaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Capparaceae (Capparacées ou Capparidacées) regroupe des plantes dicotylédones. Ce sont des arbres, des arbustes, des lianes et parfois des plantes herbacées, souvent adaptés aux zones arides, des régions tempérées à tropicales. C'est une famille largement répandue.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Capparis, dérivé du grec κάππαρης  / kapparis, câpre, nom classique du câprier, que ce soit la plante elle-même, ses boutons floraux ou ses fruits. Le non correct de cette famille est bien « Capparaceae » et non « Capparidaceae »[1] comme c’est souvent orthographié[note 1], notamment dans la Flore de Fournier[2].
-Selon Fournier ce mot viendrait de l’arabe كَبَرْ (kabar?)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Capparis, dérivé du grec κάππαρης  / kapparis, câpre, nom classique du câprier, que ce soit la plante elle-même, ses boutons floraux ou ses fruits. Le non correct de cette famille est bien « Capparaceae » et non « Capparidaceae » comme c’est souvent orthographié[note 1], notamment dans la Flore de Fournier.
+Selon Fournier ce mot viendrait de l’arabe كَبَرْ (kabar?).
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[3] situe cette famille dans l'ordre des Capparales.
-La classification phylogénétique APG II (2003)[4] n'accepte pas cette famille et inclut les plantes concernées dans celle des Brassicacées.
-Mais à la suite d'études moléculaires[5],[6], le Angiosperm Phylogeny Website [22 août 2006] accepte cette famille (et aussi les Cléomacées) et la situe dans l'ordre des Brassicales.
-La classification phylogénétique APG III (2009)[7] confirme ce choix en acceptant cette famille.
-La classification phylogénétique APG IV (2016)[8] transfère les genres Borthwickia, Forchhammeria, Stixis et Tirania, auparavant tous dans les Capparaceae, vers les Resedaceae (Brassicales).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) situe cette famille dans l'ordre des Capparales.
+La classification phylogénétique APG II (2003) n'accepte pas cette famille et inclut les plantes concernées dans celle des Brassicacées.
+Mais à la suite d'études moléculaires le Angiosperm Phylogeny Website [22 août 2006] accepte cette famille (et aussi les Cléomacées) et la situe dans l'ordre des Brassicales.
+La classification phylogénétique APG III (2009) confirme ce choix en acceptant cette famille.
+La classification phylogénétique APG IV (2016) transfère les genres Borthwickia, Forchhammeria, Stixis et Tirania, auparavant tous dans les Capparaceae, vers les Resedaceae (Brassicales).
 </t>
         </is>
       </c>
@@ -578,10 +594,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon Angiosperm Phylogeny Website                        (15 juin 2010)[9] :
+Selon Angiosperm Phylogeny Website                        (15 juin 2010) :
 Apophyllum F.Muell.
 Atamisquea Hooker &amp; Arnott
 Bachmannia Pax
@@ -607,7 +625,7 @@
 Steriphoma Spreng.
 Thilachium Lour.
 Wislizenia Engelm.
-Selon NCBI  (22 mars 2010)[10] :
+Selon NCBI  (22 mars 2010) :
 Apophyllum
 Boscia
 Buchholzia
@@ -622,8 +640,8 @@
 Steriphoma
 Thylachium
 Tirania
-(NCBI  (22 mars 2010)[10] place Atamisquea, Belencita, Cadaba dans Brassicaceae)
-Selon DELTA Angio           (22 mars 2010)[11] :
+(NCBI  (22 mars 2010) place Atamisquea, Belencita, Cadaba dans Brassicaceae)
+Selon DELTA Angio           (22 mars 2010) :
 Apophyllum
 Bachmannia
 Belencita
@@ -649,7 +667,7 @@
 Stixis
 Thilachium
 Tirania
-Selon ITIS      (22 mars 2010)[12] :
+Selon ITIS      (22 mars 2010) :
 Atamisquea Miers ex Hook. &amp; Arn.
 Boscia Lam.
 Cadaba Forsskal
